--- a/pinout.xlsx
+++ b/pinout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z003yywu\source\repos\Niedrigregallager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C18F9B6-060C-4A7C-9200-FADD5EC29063}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDC8026-568C-4EA6-B50A-8936502B1B8A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7100" yWindow="2010" windowWidth="14400" windowHeight="7360" xr2:uid="{16F809FD-F99C-4F8B-8C66-EFE6B2BC1FCB}"/>
+    <workbookView xWindow="-6860" yWindow="3270" windowWidth="14400" windowHeight="7360" xr2:uid="{16F809FD-F99C-4F8B-8C66-EFE6B2BC1FCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -194,7 +194,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
@@ -221,20 +221,26 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -554,12 +560,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053C23D9-1C72-4EAA-A5A0-C98BB505BB6B}">
   <dimension ref="D3:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="4" max="4" width="10.90625" style="16"/>
     <col min="6" max="6" width="8.1796875" customWidth="1"/>
     <col min="7" max="8" width="3.26953125" customWidth="1"/>
     <col min="9" max="9" width="4.26953125" customWidth="1"/>
@@ -568,7 +575,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D3" s="1"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="1"/>
       <c r="F3" s="4" t="s">
         <v>0</v>
@@ -584,7 +591,7 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -606,7 +613,7 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D5" s="11"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
@@ -626,7 +633,7 @@
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D6" s="1"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
@@ -646,7 +653,7 @@
       </c>
     </row>
     <row r="7" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D7" s="1"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="1"/>
       <c r="F7" s="4" t="s">
         <v>6</v>
@@ -662,7 +669,7 @@
       </c>
     </row>
     <row r="8" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -684,7 +691,7 @@
       </c>
     </row>
     <row r="9" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -706,7 +713,7 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -729,7 +736,7 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D11" s="1"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="1"/>
       <c r="F11" s="4" t="s">
         <v>0</v>
@@ -747,7 +754,7 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -769,7 +776,7 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D13" s="11"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="3" t="s">
         <v>14</v>
       </c>
@@ -791,7 +798,8 @@
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D14" s="1"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="1"/>
       <c r="F14" s="4" t="s">
         <v>4</v>
       </c>
@@ -810,7 +818,7 @@
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D15" s="1"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="1"/>
       <c r="F15" s="4" t="s">
         <v>6</v>
@@ -828,7 +836,7 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D16" s="1"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="1"/>
       <c r="F16" s="4" t="s">
         <v>12</v>
@@ -844,7 +852,7 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D17" s="1"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="1"/>
       <c r="F17" s="4" t="s">
         <v>4</v>
@@ -862,7 +870,7 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -886,7 +894,7 @@
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D19" s="12"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="2" t="s">
         <v>14</v>
       </c>
@@ -906,7 +914,7 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -928,8 +936,8 @@
       </c>
     </row>
     <row r="21" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D21" s="13"/>
-      <c r="E21" s="14" t="s">
+      <c r="D21" s="15"/>
+      <c r="E21" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="4" t="s">
@@ -949,7 +957,7 @@
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D22" s="1"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="1"/>
       <c r="F22" s="4" t="s">
         <v>6</v>
